--- a/biology/Botanique/Staudtia_kamerunensis/Staudtia_kamerunensis.xlsx
+++ b/biology/Botanique/Staudtia_kamerunensis/Staudtia_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Staudtia kamerunensis,  qui a pour noms vernaculaires niové, ou encore arbre à pagaies en français, est un arbre de la famille des Myristicaceae, présent du Nigeria jusqu’en Ouganda, ainsi que jusqu’en République démocratique du Congo, en Zambie et au Cabinda en Angola. L’arbre est très répandu au Cameroun, au Congo et au Gabon. On le trouve dans les forêts sempervirentes denses, jusqu’à une altitude de 1 350 mètres, et il est commun dans les forêts galeries et les forêts secondaires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Staudtia kamerunensis,  qui a pour noms vernaculaires niové, ou encore arbre à pagaies en français, est un arbre de la famille des Myristicaceae, présent du Nigeria jusqu’en Ouganda, ainsi que jusqu’en République démocratique du Congo, en Zambie et au Cabinda en Angola. L’arbre est très répandu au Cameroun, au Congo et au Gabon. On le trouve dans les forêts sempervirentes denses, jusqu’à une altitude de 1 350 mètres, et il est commun dans les forêts galeries et les forêts secondaires.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-L’arbre peut atteindre 35 à 40 mètres de haut. Il présente un fût cylindrique sans branches sur 25 mètres, relativement droit, avec un diamètre de maximum 110 cm[1].
+L’arbre peut atteindre 35 à 40 mètres de haut. Il présente un fût cylindrique sans branches sur 25 mètres, relativement droit, avec un diamètre de maximum 110 cm.
 Bois et écorce
-L’écorce est rugueuse, de couleur gris rougeâtre ou cannelle, et se desquame en morceaux arrondis, orange. Le bois de cœur est de couleur brun jaunâtre. C’est un bois lourd et durable, au grain fin, avec un aspect régulier[1].
+L’écorce est rugueuse, de couleur gris rougeâtre ou cannelle, et se desquame en morceaux arrondis, orange. Le bois de cœur est de couleur brun jaunâtre. C’est un bois lourd et durable, au grain fin, avec un aspect régulier.
 Feuilles
-Les feuilles sont entières, alternes et simples.[1]
+Les feuilles sont entières, alternes et simples.
 Fleurs et fruits
-Les inflorescences contiennent 10 à 50 fleurs unisexuées et régulières. Le fruit, de couleur jaune ou cannelle, fait 2-5 cm sur 1,5-4,5 cm, et renferme 1 seule graine. Celle-ci fait 1-2 cm de long et a une couleur brun foncé[1].</t>
+Les inflorescences contiennent 10 à 50 fleurs unisexuées et régulières. Le fruit, de couleur jaune ou cannelle, fait 2-5 cm sur 1,5-4,5 cm, et renferme 1 seule graine. Celle-ci fait 1-2 cm de long et a une couleur brun foncé.</t>
         </is>
       </c>
     </row>
@@ -548,14 +562,16 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages médicinaux
-En médecine traditionnelle, une décoction d’écorce se boit pour traiter la dysenterie, soigner les plaies, et soulager la toux, notamment[1].
+En médecine traditionnelle, une décoction d’écorce se boit pour traiter la dysenterie, soigner les plaies, et soulager la toux, notamment.
 Usages alimentaires et culinaires
-L’arille du fruit est comestible. Dans l’ouest du Cameroun, une soupe est cuisinée à partir de l’écorce[1].
+L’arille du fruit est comestible. Dans l’ouest du Cameroun, une soupe est cuisinée à partir de l’écorce.
 Usages domestiques, artisanaux et industriels
-Le bois est utilisé en parqueterie, en menuiserie, en ébénisterie, entre autres. Au Gabon, le bois sert à la fabrication de pagaies notamment. Il est également utilisé comme bois de feu. À partir des graines, une pommade est fabriquée, servant à traiter la gale[1].</t>
+Le bois est utilisé en parqueterie, en menuiserie, en ébénisterie, entre autres. Au Gabon, le bois sert à la fabrication de pagaies notamment. Il est également utilisé comme bois de feu. À partir des graines, une pommade est fabriquée, servant à traiter la gale.</t>
         </is>
       </c>
     </row>
